--- a/data/financial_statements/soci/DFS.xlsx
+++ b/data/financial_statements/soci/DFS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1330 +581,1360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>3516000000</v>
+        <v>4521000000</v>
       </c>
       <c r="C2">
-        <v>3393000000</v>
+        <v>3993000000</v>
       </c>
       <c r="D2">
-        <v>3090000000</v>
+        <v>3529000000</v>
       </c>
       <c r="E2">
-        <v>3075000000</v>
+        <v>3159000000</v>
       </c>
       <c r="F2">
+        <v>3195000000</v>
+      </c>
+      <c r="G2">
+        <v>3046000000</v>
+      </c>
+      <c r="H2">
+        <v>3869000000</v>
+      </c>
+      <c r="I2">
+        <v>3111000000</v>
+      </c>
+      <c r="J2">
+        <v>3207000000</v>
+      </c>
+      <c r="K2">
+        <v>3130000000</v>
+      </c>
+      <c r="L2">
+        <v>3144000000</v>
+      </c>
+      <c r="M2">
+        <v>3472000000</v>
+      </c>
+      <c r="N2">
+        <v>3559000000</v>
+      </c>
+      <c r="O2">
+        <v>3538000000</v>
+      </c>
+      <c r="P2">
+        <v>3497000000</v>
+      </c>
+      <c r="Q2">
+        <v>3395000000</v>
+      </c>
+      <c r="R2">
+        <v>3412000000</v>
+      </c>
+      <c r="S2">
+        <v>3282000000</v>
+      </c>
+      <c r="T2">
+        <v>3110000000</v>
+      </c>
+      <c r="U2">
+        <v>3044000000</v>
+      </c>
+      <c r="V2">
+        <v>3050000000</v>
+      </c>
+      <c r="W2">
+        <v>2951000000</v>
+      </c>
+      <c r="X2">
+        <v>2819000000</v>
+      </c>
+      <c r="Y2">
+        <v>2725000000</v>
+      </c>
+      <c r="Z2">
+        <v>2724000000</v>
+      </c>
+      <c r="AA2">
+        <v>2660000000</v>
+      </c>
+      <c r="AB2">
+        <v>2555000000</v>
+      </c>
+      <c r="AC2">
+        <v>2558000000</v>
+      </c>
+      <c r="AD2">
+        <v>2534000000</v>
+      </c>
+      <c r="AE2">
+        <v>2511000000</v>
+      </c>
+      <c r="AF2">
+        <v>2486000000</v>
+      </c>
+      <c r="AG2">
+        <v>2471000000</v>
+      </c>
+      <c r="AH2">
+        <v>2339000000</v>
+      </c>
+      <c r="AI2">
+        <v>2478000000</v>
+      </c>
+      <c r="AJ2">
+        <v>2446000000</v>
+      </c>
+      <c r="AK2">
+        <v>2348000000</v>
+      </c>
+      <c r="AL2">
+        <v>2402000000</v>
+      </c>
+      <c r="AM2">
+        <v>2340000000</v>
+      </c>
+      <c r="AN2">
+        <v>2338000000</v>
+      </c>
+      <c r="AO2">
+        <v>2290000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.415</v>
+      </c>
+      <c r="C3">
+        <v>0.3109</v>
+      </c>
+      <c r="D3">
+        <v>-0.08790000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.0154</v>
+      </c>
+      <c r="F3">
+        <v>-0.0037</v>
+      </c>
+      <c r="G3">
+        <v>-0.0268</v>
+      </c>
+      <c r="H3">
+        <v>0.2306</v>
+      </c>
+      <c r="I3">
+        <v>-0.104</v>
+      </c>
+      <c r="J3">
+        <v>-0.0989</v>
+      </c>
+      <c r="K3">
+        <v>-0.1153</v>
+      </c>
+      <c r="L3">
+        <v>-0.1009</v>
+      </c>
+      <c r="M3">
+        <v>0.0227</v>
+      </c>
+      <c r="N3">
+        <v>0.0431</v>
+      </c>
+      <c r="O3">
+        <v>0.078</v>
+      </c>
+      <c r="P3">
+        <v>0.1244</v>
+      </c>
+      <c r="Q3">
+        <v>0.1153</v>
+      </c>
+      <c r="R3">
+        <v>0.1187</v>
+      </c>
+      <c r="S3">
+        <v>0.1122</v>
+      </c>
+      <c r="T3">
+        <v>0.1032</v>
+      </c>
+      <c r="U3">
+        <v>0.1171</v>
+      </c>
+      <c r="V3">
+        <v>0.1197</v>
+      </c>
+      <c r="W3">
+        <v>0.1094</v>
+      </c>
+      <c r="X3">
+        <v>0.1033</v>
+      </c>
+      <c r="Y3">
+        <v>0.0653</v>
+      </c>
+      <c r="Z3">
+        <v>0.075</v>
+      </c>
+      <c r="AA3">
+        <v>0.0593</v>
+      </c>
+      <c r="AB3">
+        <v>0.0278</v>
+      </c>
+      <c r="AC3">
+        <v>0.0352</v>
+      </c>
+      <c r="AD3">
+        <v>0.0834</v>
+      </c>
+      <c r="AE3">
+        <v>0.0133</v>
+      </c>
+      <c r="AF3">
+        <v>0.0164</v>
+      </c>
+      <c r="AG3">
+        <v>0.0524</v>
+      </c>
+      <c r="AH3">
+        <v>-0.0262</v>
+      </c>
+      <c r="AI3">
+        <v>0.059</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0462</v>
+      </c>
+      <c r="AK3">
+        <v>0.0253</v>
+      </c>
+      <c r="AL3">
+        <v>0.0327</v>
+      </c>
+      <c r="AM3">
+        <v>0.0222</v>
+      </c>
+      <c r="AN3">
+        <v>0.06370000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.0463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>789000000</v>
+      </c>
+      <c r="C4">
+        <v>514000000</v>
+      </c>
+      <c r="D4">
+        <v>305000000</v>
+      </c>
+      <c r="E4">
+        <v>257000000</v>
+      </c>
+      <c r="F4">
+        <v>259000000</v>
+      </c>
+      <c r="G4">
+        <v>269000000</v>
+      </c>
+      <c r="H4">
+        <v>290000000</v>
+      </c>
+      <c r="I4">
+        <v>316000000</v>
+      </c>
+      <c r="J4">
+        <v>383000000</v>
+      </c>
+      <c r="K4">
+        <v>416000000</v>
+      </c>
+      <c r="L4">
+        <v>482000000</v>
+      </c>
+      <c r="M4">
+        <v>584000000</v>
+      </c>
+      <c r="N4">
+        <v>615000000</v>
+      </c>
+      <c r="O4">
+        <v>638000000</v>
+      </c>
+      <c r="P4">
+        <v>645000000</v>
+      </c>
+      <c r="Q4">
+        <v>632000000</v>
+      </c>
+      <c r="R4">
+        <v>605000000</v>
+      </c>
+      <c r="S4">
+        <v>558000000</v>
+      </c>
+      <c r="T4">
+        <v>507000000</v>
+      </c>
+      <c r="U4">
+        <v>469000000</v>
+      </c>
+      <c r="V4">
+        <v>436000000</v>
+      </c>
+      <c r="W4">
+        <v>426000000</v>
+      </c>
+      <c r="X4">
+        <v>400000000</v>
+      </c>
+      <c r="Y4">
+        <v>386000000</v>
+      </c>
+      <c r="Z4">
+        <v>366000000</v>
+      </c>
+      <c r="AA4">
+        <v>359000000</v>
+      </c>
+      <c r="AB4">
+        <v>339000000</v>
+      </c>
+      <c r="AC4">
+        <v>334000000</v>
+      </c>
+      <c r="AD4">
+        <v>329000000</v>
+      </c>
+      <c r="AE4">
+        <v>323000000</v>
+      </c>
+      <c r="AF4">
+        <v>311000000</v>
+      </c>
+      <c r="AG4">
+        <v>300000000</v>
+      </c>
+      <c r="AH4">
+        <v>302000000</v>
+      </c>
+      <c r="AI4">
+        <v>288000000</v>
+      </c>
+      <c r="AJ4">
+        <v>274000000</v>
+      </c>
+      <c r="AK4">
+        <v>270000000</v>
+      </c>
+      <c r="AL4">
+        <v>273000000</v>
+      </c>
+      <c r="AM4">
+        <v>278000000</v>
+      </c>
+      <c r="AN4">
+        <v>297000000</v>
+      </c>
+      <c r="AO4">
+        <v>298000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>3732000000</v>
+      </c>
+      <c r="C5">
+        <v>3479000000</v>
+      </c>
+      <c r="D5">
+        <v>3224000000</v>
+      </c>
+      <c r="E5">
+        <v>2902000000</v>
+      </c>
+      <c r="F5">
+        <v>2936000000</v>
+      </c>
+      <c r="G5">
+        <v>2777000000</v>
+      </c>
+      <c r="H5">
+        <v>3579000000</v>
+      </c>
+      <c r="I5">
+        <v>2795000000</v>
+      </c>
+      <c r="J5">
+        <v>2824000000</v>
+      </c>
+      <c r="K5">
+        <v>2714000000</v>
+      </c>
+      <c r="L5">
+        <v>2662000000</v>
+      </c>
+      <c r="M5">
+        <v>2888000000</v>
+      </c>
+      <c r="N5">
         <v>2944000000</v>
       </c>
-      <c r="G2">
-        <v>3869000000</v>
-      </c>
-      <c r="H2">
-        <v>3111000000</v>
-      </c>
-      <c r="I2">
-        <v>3207000000</v>
-      </c>
-      <c r="J2">
-        <v>3130000000</v>
-      </c>
-      <c r="K2">
-        <v>3144000000</v>
-      </c>
-      <c r="L2">
-        <v>3472000000</v>
-      </c>
-      <c r="M2">
-        <v>3559000000</v>
-      </c>
-      <c r="N2">
-        <v>3538000000</v>
-      </c>
-      <c r="O2">
-        <v>3497000000</v>
-      </c>
-      <c r="P2">
-        <v>3395000000</v>
-      </c>
-      <c r="Q2">
-        <v>3412000000</v>
-      </c>
-      <c r="R2">
-        <v>3282000000</v>
-      </c>
-      <c r="S2">
-        <v>3110000000</v>
-      </c>
-      <c r="T2">
-        <v>3044000000</v>
-      </c>
-      <c r="U2">
-        <v>3050000000</v>
-      </c>
-      <c r="V2">
-        <v>2951000000</v>
-      </c>
-      <c r="W2">
-        <v>2819000000</v>
-      </c>
-      <c r="X2">
-        <v>2725000000</v>
-      </c>
-      <c r="Y2">
+      <c r="O5">
+        <v>2900000000</v>
+      </c>
+      <c r="P5">
+        <v>2852000000</v>
+      </c>
+      <c r="Q5">
+        <v>2763000000</v>
+      </c>
+      <c r="R5">
+        <v>2807000000</v>
+      </c>
+      <c r="S5">
         <v>2724000000</v>
       </c>
-      <c r="Z2">
-        <v>2660000000</v>
-      </c>
-      <c r="AA2">
-        <v>2555000000</v>
-      </c>
-      <c r="AB2">
-        <v>2558000000</v>
-      </c>
-      <c r="AC2">
-        <v>2534000000</v>
-      </c>
-      <c r="AD2">
-        <v>2511000000</v>
-      </c>
-      <c r="AE2">
-        <v>2486000000</v>
-      </c>
-      <c r="AF2">
-        <v>2471000000</v>
-      </c>
-      <c r="AG2">
+      <c r="T5">
+        <v>2603000000</v>
+      </c>
+      <c r="U5">
+        <v>2575000000</v>
+      </c>
+      <c r="V5">
+        <v>2614000000</v>
+      </c>
+      <c r="W5">
+        <v>2525000000</v>
+      </c>
+      <c r="X5">
+        <v>2419000000</v>
+      </c>
+      <c r="Y5">
         <v>2339000000</v>
       </c>
-      <c r="AH2">
-        <v>2478000000</v>
-      </c>
-      <c r="AI2">
-        <v>2446000000</v>
-      </c>
-      <c r="AJ2">
-        <v>2348000000</v>
-      </c>
-      <c r="AK2">
-        <v>2402000000</v>
-      </c>
-      <c r="AL2">
-        <v>2340000000</v>
-      </c>
-      <c r="AM2">
-        <v>2338000000</v>
-      </c>
-      <c r="AN2">
-        <v>2290000000</v>
+      <c r="Z5">
+        <v>2358000000</v>
+      </c>
+      <c r="AA5">
+        <v>2301000000</v>
+      </c>
+      <c r="AB5">
+        <v>2216000000</v>
+      </c>
+      <c r="AC5">
+        <v>2224000000</v>
+      </c>
+      <c r="AD5">
+        <v>2205000000</v>
+      </c>
+      <c r="AE5">
+        <v>2188000000</v>
+      </c>
+      <c r="AF5">
+        <v>2175000000</v>
+      </c>
+      <c r="AG5">
+        <v>2171000000</v>
+      </c>
+      <c r="AH5">
+        <v>2037000000</v>
+      </c>
+      <c r="AI5">
+        <v>2190000000</v>
+      </c>
+      <c r="AJ5">
+        <v>2172000000</v>
+      </c>
+      <c r="AK5">
+        <v>2078000000</v>
+      </c>
+      <c r="AL5">
+        <v>2129000000</v>
+      </c>
+      <c r="AM5">
+        <v>2062000000</v>
+      </c>
+      <c r="AN5">
+        <v>2041000000</v>
+      </c>
+      <c r="AO5">
+        <v>1992000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.1943</v>
-      </c>
-      <c r="C3">
-        <v>-0.123</v>
-      </c>
-      <c r="D3">
-        <v>-0.0068</v>
-      </c>
-      <c r="E3">
-        <v>-0.0412</v>
-      </c>
-      <c r="F3">
-        <v>-0.0594</v>
-      </c>
-      <c r="G3">
-        <v>0.2306</v>
-      </c>
-      <c r="H3">
-        <v>-0.104</v>
-      </c>
-      <c r="I3">
-        <v>-0.0989</v>
-      </c>
-      <c r="J3">
-        <v>-0.1153</v>
-      </c>
-      <c r="K3">
-        <v>-0.1009</v>
-      </c>
-      <c r="L3">
-        <v>0.0227</v>
-      </c>
-      <c r="M3">
-        <v>0.0431</v>
-      </c>
-      <c r="N3">
-        <v>0.078</v>
-      </c>
-      <c r="O3">
-        <v>0.1244</v>
-      </c>
-      <c r="P3">
-        <v>0.1153</v>
-      </c>
-      <c r="Q3">
-        <v>0.1187</v>
-      </c>
-      <c r="R3">
-        <v>0.1122</v>
-      </c>
-      <c r="S3">
-        <v>0.1032</v>
-      </c>
-      <c r="T3">
-        <v>0.1171</v>
-      </c>
-      <c r="U3">
-        <v>0.1197</v>
-      </c>
-      <c r="V3">
-        <v>0.1094</v>
-      </c>
-      <c r="W3">
-        <v>0.1033</v>
-      </c>
-      <c r="X3">
-        <v>0.0653</v>
-      </c>
-      <c r="Y3">
-        <v>0.075</v>
-      </c>
-      <c r="Z3">
-        <v>0.0593</v>
-      </c>
-      <c r="AA3">
-        <v>0.0278</v>
-      </c>
-      <c r="AB3">
-        <v>0.0352</v>
-      </c>
-      <c r="AC3">
-        <v>0.0834</v>
-      </c>
-      <c r="AD3">
-        <v>0.0133</v>
-      </c>
-      <c r="AE3">
-        <v>0.0164</v>
-      </c>
-      <c r="AF3">
-        <v>0.0524</v>
-      </c>
-      <c r="AG3">
-        <v>-0.0262</v>
-      </c>
-      <c r="AH3">
-        <v>0.059</v>
-      </c>
-      <c r="AI3">
-        <v>0.0462</v>
-      </c>
-      <c r="AJ3">
-        <v>0.0253</v>
-      </c>
-      <c r="AK3">
-        <v>0.0327</v>
-      </c>
-      <c r="AL3">
-        <v>0.0222</v>
-      </c>
-      <c r="AM3">
-        <v>0.06370000000000001</v>
-      </c>
-      <c r="AN3">
-        <v>0.0463</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>2378000000</v>
+      </c>
+      <c r="C6">
+        <v>2161000000</v>
+      </c>
+      <c r="D6">
+        <v>1772000000</v>
+      </c>
+      <c r="E6">
+        <v>1284000000</v>
+      </c>
+      <c r="F6">
+        <v>1575000000</v>
+      </c>
+      <c r="G6">
+        <v>1375000000</v>
+      </c>
+      <c r="H6">
+        <v>1357000000</v>
+      </c>
+      <c r="I6">
+        <v>716000000</v>
+      </c>
+      <c r="J6">
+        <v>1809000000</v>
+      </c>
+      <c r="K6">
+        <v>1755000000</v>
+      </c>
+      <c r="L6">
+        <v>3123000000</v>
+      </c>
+      <c r="M6">
+        <v>2966000000</v>
+      </c>
+      <c r="N6">
+        <v>2020000000</v>
+      </c>
+      <c r="O6">
+        <v>1906000000</v>
+      </c>
+      <c r="P6">
+        <v>1865000000</v>
+      </c>
+      <c r="Q6">
+        <v>1833000000</v>
+      </c>
+      <c r="R6">
+        <v>1910000000</v>
+      </c>
+      <c r="S6">
+        <v>1757000000</v>
+      </c>
+      <c r="T6">
+        <v>1726000000</v>
+      </c>
+      <c r="U6">
+        <v>1719000000</v>
+      </c>
+      <c r="V6">
+        <v>1715000000</v>
+      </c>
+      <c r="W6">
+        <v>1622000000</v>
+      </c>
+      <c r="X6">
+        <v>1552000000</v>
+      </c>
+      <c r="Y6">
+        <v>1471000000</v>
+      </c>
+      <c r="Z6">
+        <v>1475000000</v>
+      </c>
+      <c r="AA6">
+        <v>1340000000</v>
+      </c>
+      <c r="AB6">
+        <v>1318000000</v>
+      </c>
+      <c r="AC6">
+        <v>1310000000</v>
+      </c>
+      <c r="AD6">
+        <v>1417000000</v>
+      </c>
+      <c r="AE6">
+        <v>1214000000</v>
+      </c>
+      <c r="AF6">
+        <v>1233000000</v>
+      </c>
+      <c r="AG6">
+        <v>1263000000</v>
+      </c>
+      <c r="AH6">
+        <v>1389000000</v>
+      </c>
+      <c r="AI6">
+        <v>1181000000</v>
+      </c>
+      <c r="AJ6">
+        <v>1157000000</v>
+      </c>
+      <c r="AK6">
+        <v>1056000000</v>
+      </c>
+      <c r="AL6">
+        <v>1192000000</v>
+      </c>
+      <c r="AM6">
+        <v>1116000000</v>
+      </c>
+      <c r="AN6">
+        <v>1060000000</v>
+      </c>
+      <c r="AO6">
+        <v>912000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>514000000</v>
-      </c>
-      <c r="C4">
-        <v>305000000</v>
-      </c>
-      <c r="D4">
-        <v>257000000</v>
-      </c>
-      <c r="E4">
-        <v>259000000</v>
-      </c>
-      <c r="F4">
-        <v>269000000</v>
-      </c>
-      <c r="G4">
-        <v>290000000</v>
-      </c>
-      <c r="H4">
-        <v>316000000</v>
-      </c>
-      <c r="I4">
-        <v>383000000</v>
-      </c>
-      <c r="J4">
-        <v>416000000</v>
-      </c>
-      <c r="K4">
-        <v>482000000</v>
-      </c>
-      <c r="L4">
-        <v>584000000</v>
-      </c>
-      <c r="M4">
-        <v>615000000</v>
-      </c>
-      <c r="N4">
-        <v>638000000</v>
-      </c>
-      <c r="O4">
-        <v>645000000</v>
-      </c>
-      <c r="P4">
-        <v>632000000</v>
-      </c>
-      <c r="Q4">
-        <v>605000000</v>
-      </c>
-      <c r="R4">
-        <v>558000000</v>
-      </c>
-      <c r="S4">
-        <v>507000000</v>
-      </c>
-      <c r="T4">
-        <v>469000000</v>
-      </c>
-      <c r="U4">
-        <v>436000000</v>
-      </c>
-      <c r="V4">
-        <v>426000000</v>
-      </c>
-      <c r="W4">
-        <v>400000000</v>
-      </c>
-      <c r="X4">
-        <v>386000000</v>
-      </c>
-      <c r="Y4">
-        <v>366000000</v>
-      </c>
-      <c r="Z4">
-        <v>359000000</v>
-      </c>
-      <c r="AA4">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>1354000000</v>
+      </c>
+      <c r="C7">
+        <v>1318000000</v>
+      </c>
+      <c r="D7">
+        <v>1452000000</v>
+      </c>
+      <c r="E7">
+        <v>1618000000</v>
+      </c>
+      <c r="F7">
+        <v>1361000000</v>
+      </c>
+      <c r="G7">
+        <v>1402000000</v>
+      </c>
+      <c r="H7">
+        <v>2222000000</v>
+      </c>
+      <c r="I7">
+        <v>2079000000</v>
+      </c>
+      <c r="J7">
+        <v>1015000000</v>
+      </c>
+      <c r="K7">
+        <v>959000000</v>
+      </c>
+      <c r="L7">
+        <v>-461000000</v>
+      </c>
+      <c r="M7">
+        <v>-78000000</v>
+      </c>
+      <c r="N7">
+        <v>924000000</v>
+      </c>
+      <c r="O7">
+        <v>994000000</v>
+      </c>
+      <c r="P7">
+        <v>987000000</v>
+      </c>
+      <c r="Q7">
+        <v>930000000</v>
+      </c>
+      <c r="R7">
+        <v>897000000</v>
+      </c>
+      <c r="S7">
+        <v>967000000</v>
+      </c>
+      <c r="T7">
+        <v>877000000</v>
+      </c>
+      <c r="U7">
+        <v>856000000</v>
+      </c>
+      <c r="V7">
+        <v>899000000</v>
+      </c>
+      <c r="W7">
+        <v>903000000</v>
+      </c>
+      <c r="X7">
+        <v>867000000</v>
+      </c>
+      <c r="Y7">
+        <v>868000000</v>
+      </c>
+      <c r="Z7">
+        <v>883000000</v>
+      </c>
+      <c r="AA7">
+        <v>961000000</v>
+      </c>
+      <c r="AB7">
+        <v>898000000</v>
+      </c>
+      <c r="AC7">
+        <v>914000000</v>
+      </c>
+      <c r="AD7">
+        <v>788000000</v>
+      </c>
+      <c r="AE7">
+        <v>974000000</v>
+      </c>
+      <c r="AF7">
+        <v>942000000</v>
+      </c>
+      <c r="AG7">
+        <v>908000000</v>
+      </c>
+      <c r="AH7">
+        <v>648000000</v>
+      </c>
+      <c r="AI7">
+        <v>1009000000</v>
+      </c>
+      <c r="AJ7">
+        <v>1015000000</v>
+      </c>
+      <c r="AK7">
+        <v>1022000000</v>
+      </c>
+      <c r="AL7">
+        <v>937000000</v>
+      </c>
+      <c r="AM7">
+        <v>946000000</v>
+      </c>
+      <c r="AN7">
+        <v>981000000</v>
+      </c>
+      <c r="AO7">
+        <v>1080000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8">
+        <v>59000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1354000000</v>
+      </c>
+      <c r="C9">
+        <v>1318000000</v>
+      </c>
+      <c r="D9">
+        <v>1452000000</v>
+      </c>
+      <c r="E9">
+        <v>1618000000</v>
+      </c>
+      <c r="F9">
+        <v>1361000000</v>
+      </c>
+      <c r="G9">
+        <v>1402000000</v>
+      </c>
+      <c r="H9">
+        <v>2222000000</v>
+      </c>
+      <c r="I9">
+        <v>2079000000</v>
+      </c>
+      <c r="J9">
+        <v>1015000000</v>
+      </c>
+      <c r="K9">
+        <v>959000000</v>
+      </c>
+      <c r="L9">
+        <v>-461000000</v>
+      </c>
+      <c r="M9">
+        <v>-78000000</v>
+      </c>
+      <c r="N9">
+        <v>924000000</v>
+      </c>
+      <c r="O9">
+        <v>994000000</v>
+      </c>
+      <c r="P9">
+        <v>987000000</v>
+      </c>
+      <c r="Q9">
+        <v>930000000</v>
+      </c>
+      <c r="R9">
+        <v>897000000</v>
+      </c>
+      <c r="S9">
+        <v>967000000</v>
+      </c>
+      <c r="T9">
+        <v>877000000</v>
+      </c>
+      <c r="U9">
+        <v>856000000</v>
+      </c>
+      <c r="V9">
+        <v>899000000</v>
+      </c>
+      <c r="W9">
+        <v>903000000</v>
+      </c>
+      <c r="X9">
+        <v>867000000</v>
+      </c>
+      <c r="Y9">
+        <v>868000000</v>
+      </c>
+      <c r="Z9">
+        <v>883000000</v>
+      </c>
+      <c r="AA9">
+        <v>961000000</v>
+      </c>
+      <c r="AB9">
+        <v>898000000</v>
+      </c>
+      <c r="AC9">
+        <v>914000000</v>
+      </c>
+      <c r="AD9">
+        <v>788000000</v>
+      </c>
+      <c r="AE9">
+        <v>974000000</v>
+      </c>
+      <c r="AF9">
+        <v>942000000</v>
+      </c>
+      <c r="AG9">
+        <v>908000000</v>
+      </c>
+      <c r="AH9">
+        <v>648000000</v>
+      </c>
+      <c r="AI9">
+        <v>1009000000</v>
+      </c>
+      <c r="AJ9">
+        <v>1015000000</v>
+      </c>
+      <c r="AK9">
+        <v>1022000000</v>
+      </c>
+      <c r="AL9">
+        <v>937000000</v>
+      </c>
+      <c r="AM9">
+        <v>946000000</v>
+      </c>
+      <c r="AN9">
+        <v>981000000</v>
+      </c>
+      <c r="AO9">
+        <v>1080000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>321000000</v>
+      </c>
+      <c r="C10">
+        <v>312000000</v>
+      </c>
+      <c r="D10">
+        <v>341000000</v>
+      </c>
+      <c r="E10">
+        <v>376000000</v>
+      </c>
+      <c r="F10">
+        <v>294000000</v>
+      </c>
+      <c r="G10">
+        <v>311000000</v>
+      </c>
+      <c r="H10">
+        <v>524000000</v>
+      </c>
+      <c r="I10">
+        <v>486000000</v>
+      </c>
+      <c r="J10">
+        <v>216000000</v>
+      </c>
+      <c r="K10">
+        <v>188000000</v>
+      </c>
+      <c r="L10">
+        <v>-93000000</v>
+      </c>
+      <c r="M10">
+        <v>-17000000</v>
+      </c>
+      <c r="N10">
+        <v>216000000</v>
+      </c>
+      <c r="O10">
+        <v>224000000</v>
+      </c>
+      <c r="P10">
+        <v>234000000</v>
+      </c>
+      <c r="Q10">
+        <v>204000000</v>
+      </c>
+      <c r="R10">
+        <v>210000000</v>
+      </c>
+      <c r="S10">
+        <v>247000000</v>
+      </c>
+      <c r="T10">
+        <v>208000000</v>
+      </c>
+      <c r="U10">
+        <v>190000000</v>
+      </c>
+      <c r="V10">
+        <v>512000000</v>
+      </c>
+      <c r="W10">
+        <v>301000000</v>
+      </c>
+      <c r="X10">
+        <v>321000000</v>
+      </c>
+      <c r="Y10">
+        <v>304000000</v>
+      </c>
+      <c r="Z10">
+        <v>320000000</v>
+      </c>
+      <c r="AA10">
+        <v>322000000</v>
+      </c>
+      <c r="AB10">
+        <v>282000000</v>
+      </c>
+      <c r="AC10">
         <v>339000000</v>
       </c>
-      <c r="AB4">
-        <v>334000000</v>
-      </c>
-      <c r="AC4">
-        <v>329000000</v>
-      </c>
-      <c r="AD4">
-        <v>323000000</v>
-      </c>
-      <c r="AE4">
-        <v>311000000</v>
-      </c>
-      <c r="AF4">
-        <v>300000000</v>
-      </c>
-      <c r="AG4">
-        <v>302000000</v>
-      </c>
-      <c r="AH4">
+      <c r="AD10">
         <v>288000000</v>
       </c>
-      <c r="AI4">
-        <v>274000000</v>
-      </c>
-      <c r="AJ4">
-        <v>270000000</v>
-      </c>
-      <c r="AK4">
-        <v>273000000</v>
-      </c>
-      <c r="AL4">
-        <v>278000000</v>
-      </c>
-      <c r="AM4">
-        <v>297000000</v>
-      </c>
-      <c r="AN4">
-        <v>298000000</v>
+      <c r="AE10">
+        <v>362000000</v>
+      </c>
+      <c r="AF10">
+        <v>343000000</v>
+      </c>
+      <c r="AG10">
+        <v>322000000</v>
+      </c>
+      <c r="AH10">
+        <v>244000000</v>
+      </c>
+      <c r="AI10">
+        <v>365000000</v>
+      </c>
+      <c r="AJ10">
+        <v>371000000</v>
+      </c>
+      <c r="AK10">
+        <v>391000000</v>
+      </c>
+      <c r="AL10">
+        <v>335000000</v>
+      </c>
+      <c r="AM10">
+        <v>353000000</v>
+      </c>
+      <c r="AN10">
+        <v>379000000</v>
+      </c>
+      <c r="AO10">
+        <v>407000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3479000000</v>
-      </c>
-      <c r="C5">
-        <v>3224000000</v>
-      </c>
-      <c r="D5">
-        <v>2902000000</v>
-      </c>
-      <c r="E5">
-        <v>2936000000</v>
-      </c>
-      <c r="F5">
-        <v>2777000000</v>
-      </c>
-      <c r="G5">
-        <v>3579000000</v>
-      </c>
-      <c r="H5">
-        <v>2795000000</v>
-      </c>
-      <c r="I5">
-        <v>2824000000</v>
-      </c>
-      <c r="J5">
-        <v>2714000000</v>
-      </c>
-      <c r="K5">
-        <v>2662000000</v>
-      </c>
-      <c r="L5">
-        <v>2888000000</v>
-      </c>
-      <c r="M5">
-        <v>2944000000</v>
-      </c>
-      <c r="N5">
-        <v>2900000000</v>
-      </c>
-      <c r="O5">
-        <v>2852000000</v>
-      </c>
-      <c r="P5">
-        <v>2763000000</v>
-      </c>
-      <c r="Q5">
-        <v>2807000000</v>
-      </c>
-      <c r="R5">
-        <v>2724000000</v>
-      </c>
-      <c r="S5">
-        <v>2603000000</v>
-      </c>
-      <c r="T5">
-        <v>2575000000</v>
-      </c>
-      <c r="U5">
-        <v>2614000000</v>
-      </c>
-      <c r="V5">
-        <v>2525000000</v>
-      </c>
-      <c r="W5">
-        <v>2419000000</v>
-      </c>
-      <c r="X5">
-        <v>2339000000</v>
-      </c>
-      <c r="Y5">
-        <v>2358000000</v>
-      </c>
-      <c r="Z5">
-        <v>2301000000</v>
-      </c>
-      <c r="AA5">
-        <v>2216000000</v>
-      </c>
-      <c r="AB5">
-        <v>2224000000</v>
-      </c>
-      <c r="AC5">
-        <v>2205000000</v>
-      </c>
-      <c r="AD5">
-        <v>2188000000</v>
-      </c>
-      <c r="AE5">
-        <v>2175000000</v>
-      </c>
-      <c r="AF5">
-        <v>2171000000</v>
-      </c>
-      <c r="AG5">
-        <v>2037000000</v>
-      </c>
-      <c r="AH5">
-        <v>2190000000</v>
-      </c>
-      <c r="AI5">
-        <v>2172000000</v>
-      </c>
-      <c r="AJ5">
-        <v>2078000000</v>
-      </c>
-      <c r="AK5">
-        <v>2129000000</v>
-      </c>
-      <c r="AL5">
-        <v>2062000000</v>
-      </c>
-      <c r="AM5">
-        <v>2041000000</v>
-      </c>
-      <c r="AN5">
-        <v>1992000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2161000000</v>
-      </c>
-      <c r="C6">
-        <v>1772000000</v>
-      </c>
-      <c r="D6">
-        <v>1284000000</v>
-      </c>
-      <c r="E6">
-        <v>1575000000</v>
-      </c>
-      <c r="F6">
-        <v>1375000000</v>
-      </c>
-      <c r="G6">
-        <v>1357000000</v>
-      </c>
-      <c r="H6">
-        <v>716000000</v>
-      </c>
-      <c r="I6">
-        <v>1809000000</v>
-      </c>
-      <c r="J6">
-        <v>1755000000</v>
-      </c>
-      <c r="K6">
-        <v>3123000000</v>
-      </c>
-      <c r="L6">
-        <v>2966000000</v>
-      </c>
-      <c r="M6">
-        <v>2020000000</v>
-      </c>
-      <c r="N6">
-        <v>1906000000</v>
-      </c>
-      <c r="O6">
-        <v>1865000000</v>
-      </c>
-      <c r="P6">
-        <v>1833000000</v>
-      </c>
-      <c r="Q6">
-        <v>1910000000</v>
-      </c>
-      <c r="R6">
-        <v>1757000000</v>
-      </c>
-      <c r="S6">
-        <v>1726000000</v>
-      </c>
-      <c r="T6">
-        <v>1719000000</v>
-      </c>
-      <c r="U6">
-        <v>1715000000</v>
-      </c>
-      <c r="V6">
-        <v>1622000000</v>
-      </c>
-      <c r="W6">
-        <v>1552000000</v>
-      </c>
-      <c r="X6">
-        <v>1471000000</v>
-      </c>
-      <c r="Y6">
-        <v>1475000000</v>
-      </c>
-      <c r="Z6">
-        <v>1340000000</v>
-      </c>
-      <c r="AA6">
-        <v>1318000000</v>
-      </c>
-      <c r="AB6">
-        <v>1310000000</v>
-      </c>
-      <c r="AC6">
-        <v>1417000000</v>
-      </c>
-      <c r="AD6">
-        <v>1214000000</v>
-      </c>
-      <c r="AE6">
-        <v>1233000000</v>
-      </c>
-      <c r="AF6">
-        <v>1263000000</v>
-      </c>
-      <c r="AG6">
-        <v>1389000000</v>
-      </c>
-      <c r="AH6">
-        <v>1181000000</v>
-      </c>
-      <c r="AI6">
-        <v>1157000000</v>
-      </c>
-      <c r="AJ6">
-        <v>1056000000</v>
-      </c>
-      <c r="AK6">
-        <v>1192000000</v>
-      </c>
-      <c r="AL6">
-        <v>1116000000</v>
-      </c>
-      <c r="AM6">
-        <v>1060000000</v>
-      </c>
-      <c r="AN6">
-        <v>912000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1318000000</v>
-      </c>
-      <c r="C7">
-        <v>1452000000</v>
-      </c>
-      <c r="D7">
-        <v>1618000000</v>
-      </c>
-      <c r="E7">
-        <v>1361000000</v>
-      </c>
-      <c r="F7">
-        <v>1402000000</v>
-      </c>
-      <c r="G7">
-        <v>2222000000</v>
-      </c>
-      <c r="H7">
-        <v>2079000000</v>
-      </c>
-      <c r="I7">
-        <v>1015000000</v>
-      </c>
-      <c r="J7">
-        <v>959000000</v>
-      </c>
-      <c r="K7">
-        <v>-461000000</v>
-      </c>
-      <c r="L7">
-        <v>-78000000</v>
-      </c>
-      <c r="M7">
-        <v>924000000</v>
-      </c>
-      <c r="N7">
-        <v>994000000</v>
-      </c>
-      <c r="O7">
-        <v>987000000</v>
-      </c>
-      <c r="P7">
-        <v>930000000</v>
-      </c>
-      <c r="Q7">
-        <v>897000000</v>
-      </c>
-      <c r="R7">
-        <v>967000000</v>
-      </c>
-      <c r="S7">
-        <v>877000000</v>
-      </c>
-      <c r="T7">
-        <v>856000000</v>
-      </c>
-      <c r="U7">
-        <v>899000000</v>
-      </c>
-      <c r="V7">
-        <v>903000000</v>
-      </c>
-      <c r="W7">
-        <v>867000000</v>
-      </c>
-      <c r="X7">
-        <v>868000000</v>
-      </c>
-      <c r="Y7">
-        <v>883000000</v>
-      </c>
-      <c r="Z7">
-        <v>961000000</v>
-      </c>
-      <c r="AA7">
-        <v>898000000</v>
-      </c>
-      <c r="AB7">
-        <v>914000000</v>
-      </c>
-      <c r="AC7">
-        <v>788000000</v>
-      </c>
-      <c r="AD7">
-        <v>974000000</v>
-      </c>
-      <c r="AE7">
-        <v>942000000</v>
-      </c>
-      <c r="AF7">
-        <v>908000000</v>
-      </c>
-      <c r="AG7">
-        <v>648000000</v>
-      </c>
-      <c r="AH7">
-        <v>1009000000</v>
-      </c>
-      <c r="AI7">
-        <v>1015000000</v>
-      </c>
-      <c r="AJ7">
-        <v>1022000000</v>
-      </c>
-      <c r="AK7">
-        <v>937000000</v>
-      </c>
-      <c r="AL7">
-        <v>946000000</v>
-      </c>
-      <c r="AM7">
-        <v>981000000</v>
-      </c>
-      <c r="AN7">
-        <v>1080000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>59000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1318000000</v>
-      </c>
-      <c r="C9">
-        <v>1452000000</v>
-      </c>
-      <c r="D9">
-        <v>1618000000</v>
-      </c>
-      <c r="E9">
-        <v>1361000000</v>
-      </c>
-      <c r="F9">
-        <v>1402000000</v>
-      </c>
-      <c r="G9">
-        <v>2222000000</v>
-      </c>
-      <c r="H9">
-        <v>2079000000</v>
-      </c>
-      <c r="I9">
-        <v>1015000000</v>
-      </c>
-      <c r="J9">
-        <v>959000000</v>
-      </c>
-      <c r="K9">
-        <v>-461000000</v>
-      </c>
-      <c r="L9">
-        <v>-78000000</v>
-      </c>
-      <c r="M9">
-        <v>924000000</v>
-      </c>
-      <c r="N9">
-        <v>994000000</v>
-      </c>
-      <c r="O9">
-        <v>987000000</v>
-      </c>
-      <c r="P9">
-        <v>930000000</v>
-      </c>
-      <c r="Q9">
-        <v>897000000</v>
-      </c>
-      <c r="R9">
-        <v>967000000</v>
-      </c>
-      <c r="S9">
-        <v>877000000</v>
-      </c>
-      <c r="T9">
-        <v>856000000</v>
-      </c>
-      <c r="U9">
-        <v>899000000</v>
-      </c>
-      <c r="V9">
-        <v>903000000</v>
-      </c>
-      <c r="W9">
-        <v>867000000</v>
-      </c>
-      <c r="X9">
-        <v>868000000</v>
-      </c>
-      <c r="Y9">
-        <v>883000000</v>
-      </c>
-      <c r="Z9">
-        <v>961000000</v>
-      </c>
-      <c r="AA9">
-        <v>898000000</v>
-      </c>
-      <c r="AB9">
-        <v>914000000</v>
-      </c>
-      <c r="AC9">
-        <v>788000000</v>
-      </c>
-      <c r="AD9">
-        <v>974000000</v>
-      </c>
-      <c r="AE9">
-        <v>942000000</v>
-      </c>
-      <c r="AF9">
-        <v>908000000</v>
-      </c>
-      <c r="AG9">
-        <v>648000000</v>
-      </c>
-      <c r="AH9">
-        <v>1009000000</v>
-      </c>
-      <c r="AI9">
-        <v>1015000000</v>
-      </c>
-      <c r="AJ9">
-        <v>1022000000</v>
-      </c>
-      <c r="AK9">
-        <v>937000000</v>
-      </c>
-      <c r="AL9">
-        <v>946000000</v>
-      </c>
-      <c r="AM9">
-        <v>981000000</v>
-      </c>
-      <c r="AN9">
-        <v>1080000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>312000000</v>
-      </c>
-      <c r="C10">
-        <v>341000000</v>
-      </c>
-      <c r="D10">
-        <v>376000000</v>
-      </c>
-      <c r="E10">
-        <v>294000000</v>
-      </c>
-      <c r="F10">
-        <v>311000000</v>
-      </c>
-      <c r="G10">
-        <v>524000000</v>
-      </c>
-      <c r="H10">
-        <v>486000000</v>
-      </c>
-      <c r="I10">
-        <v>216000000</v>
-      </c>
-      <c r="J10">
-        <v>188000000</v>
-      </c>
-      <c r="K10">
-        <v>-93000000</v>
-      </c>
-      <c r="L10">
-        <v>-17000000</v>
-      </c>
-      <c r="M10">
-        <v>216000000</v>
-      </c>
-      <c r="N10">
-        <v>224000000</v>
-      </c>
-      <c r="O10">
-        <v>234000000</v>
-      </c>
-      <c r="P10">
-        <v>204000000</v>
-      </c>
-      <c r="Q10">
-        <v>210000000</v>
-      </c>
-      <c r="R10">
-        <v>247000000</v>
-      </c>
-      <c r="S10">
-        <v>208000000</v>
-      </c>
-      <c r="T10">
-        <v>190000000</v>
-      </c>
-      <c r="U10">
-        <v>512000000</v>
-      </c>
-      <c r="V10">
-        <v>301000000</v>
-      </c>
-      <c r="W10">
-        <v>321000000</v>
-      </c>
-      <c r="X10">
-        <v>304000000</v>
-      </c>
-      <c r="Y10">
-        <v>320000000</v>
-      </c>
-      <c r="Z10">
-        <v>322000000</v>
-      </c>
-      <c r="AA10">
-        <v>282000000</v>
-      </c>
-      <c r="AB10">
-        <v>339000000</v>
-      </c>
-      <c r="AC10">
-        <v>288000000</v>
-      </c>
-      <c r="AD10">
-        <v>362000000</v>
-      </c>
-      <c r="AE10">
-        <v>343000000</v>
-      </c>
-      <c r="AF10">
-        <v>322000000</v>
-      </c>
-      <c r="AG10">
-        <v>244000000</v>
-      </c>
-      <c r="AH10">
-        <v>365000000</v>
-      </c>
-      <c r="AI10">
-        <v>371000000</v>
-      </c>
-      <c r="AJ10">
-        <v>391000000</v>
-      </c>
-      <c r="AK10">
-        <v>335000000</v>
-      </c>
-      <c r="AL10">
-        <v>353000000</v>
-      </c>
-      <c r="AM10">
-        <v>379000000</v>
-      </c>
-      <c r="AN10">
-        <v>407000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1033000000</v>
+      </c>
+      <c r="C11">
         <v>1006000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1111000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1242000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1067000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1091000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1698000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1593000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>799000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>771000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-368000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-61000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>708000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>770000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>753000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>726000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>687000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>720000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>669000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>666000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>387000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>602000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>546000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>564000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>563000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>639000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>616000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>575000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>500000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>612000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>599000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>586000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>404000000</v>
-      </c>
-      <c r="AH11">
-        <v>644000000</v>
       </c>
       <c r="AI11">
         <v>644000000</v>
       </c>
       <c r="AJ11">
+        <v>644000000</v>
+      </c>
+      <c r="AK11">
         <v>631000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>602000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>593000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>602000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>673000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>6000000</v>
+      </c>
+      <c r="C12">
         <v>39000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>6000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>37000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>36000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>47000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-1000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>21000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>21000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>6000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>21000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>6000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>20000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>28000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>13000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>14000000</v>
-      </c>
-      <c r="X12">
-        <v>13000000</v>
       </c>
       <c r="Y12">
         <v>13000000</v>
       </c>
       <c r="Z12">
-        <v>14000000</v>
+        <v>13000000</v>
       </c>
       <c r="AA12">
         <v>14000000</v>
       </c>
       <c r="AB12">
+        <v>14000000</v>
+      </c>
+      <c r="AC12">
         <v>13000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>12000000</v>
-      </c>
-      <c r="AD12">
-        <v>13000000</v>
       </c>
       <c r="AE12">
         <v>13000000</v>
@@ -1799,19 +1943,19 @@
         <v>13000000</v>
       </c>
       <c r="AG12">
+        <v>13000000</v>
+      </c>
+      <c r="AH12">
         <v>12000000</v>
-      </c>
-      <c r="AH12">
-        <v>14000000</v>
       </c>
       <c r="AI12">
         <v>14000000</v>
       </c>
       <c r="AJ12">
+        <v>14000000</v>
+      </c>
+      <c r="AK12">
         <v>13000000</v>
-      </c>
-      <c r="AK12">
-        <v>14000000</v>
       </c>
       <c r="AL12">
         <v>14000000</v>
@@ -1822,742 +1966,757 @@
       <c r="AN12">
         <v>14000000</v>
       </c>
+      <c r="AO12">
+        <v>14000000</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1027000000</v>
+      </c>
+      <c r="C13">
         <v>967000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1105000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1205000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1062000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1055000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1688000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1546000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>800000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>751000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-369000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-78000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>707000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>749000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>747000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>705000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>681000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>699000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>663000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>646000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>359000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>589000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>532000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>551000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>550000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>625000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>602000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>562000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>488000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>599000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>586000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>573000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>392000000</v>
-      </c>
-      <c r="AH13">
-        <v>630000000</v>
       </c>
       <c r="AI13">
         <v>630000000</v>
       </c>
       <c r="AJ13">
+        <v>630000000</v>
+      </c>
+      <c r="AK13">
         <v>618000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>588000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>579000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>588000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>659000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3.53</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
+        <v>3.54</v>
+      </c>
+      <c r="D14">
         <v>3.96</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4.23</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>3.64</v>
+      </c>
+      <c r="G14">
         <v>3.54</v>
       </c>
-      <c r="F14">
-        <v>3.54</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.56</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.04</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.59</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.45</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-1.2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.25</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.25</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.36</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.32</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.15</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.04</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.05</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.91</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.82</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.99</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.59</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.41</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.43</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.4</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.56</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.47</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.35</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1.15</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1.38</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1.33</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1.28</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.87</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1.37</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.35</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1.31</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.24</v>
-      </c>
-      <c r="AL14">
-        <v>1.2</v>
       </c>
       <c r="AM14">
         <v>1.2</v>
       </c>
       <c r="AN14">
+        <v>1.2</v>
+      </c>
+      <c r="AO14">
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3.54</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.96</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4.22</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3.64</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.54</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.55</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.04</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.59</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.45</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-1.2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-0.25</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.36</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.32</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.15</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.03</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.05</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.91</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.82</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.99</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.59</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.4</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.43</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.4</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.56</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.47</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1.35</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.14</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.38</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1.33</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.28</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.87</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.37</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.35</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.31</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.23</v>
-      </c>
-      <c r="AL15">
-        <v>1.2</v>
       </c>
       <c r="AM15">
         <v>1.2</v>
       </c>
       <c r="AN15">
+        <v>1.2</v>
+      </c>
+      <c r="AO15">
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>272000000</v>
+      </c>
+      <c r="C16">
         <v>273000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>279000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>285000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>300000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>298000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>304000000</v>
-      </c>
-      <c r="H16">
-        <v>307000000</v>
       </c>
       <c r="I16">
         <v>307000000</v>
       </c>
       <c r="J16">
-        <v>306000000</v>
+        <v>307000000</v>
       </c>
       <c r="K16">
         <v>306000000</v>
       </c>
       <c r="L16">
+        <v>306000000</v>
+      </c>
+      <c r="M16">
         <v>308000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>320000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>317000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>322000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>328000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>344000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>341000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>348000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>355000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>374000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>371000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>379000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>386000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>405000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>402000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>410000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>417000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>437000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>433000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>441000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>448000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>462000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>460000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>466000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>471000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>485492000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>482000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>489000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>496000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>273000000</v>
+      </c>
+      <c r="C17">
         <v>274000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>279000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>285000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>300000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>298000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>304000000</v>
-      </c>
-      <c r="H17">
-        <v>307000000</v>
       </c>
       <c r="I17">
         <v>307000000</v>
       </c>
       <c r="J17">
-        <v>306000000</v>
+        <v>307000000</v>
       </c>
       <c r="K17">
         <v>306000000</v>
       </c>
       <c r="L17">
+        <v>306000000</v>
+      </c>
+      <c r="M17">
         <v>308000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>320000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>317000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>323000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>328000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>345000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>342000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>348000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>355000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>374000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>371000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>379000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>386000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>406000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>402000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>411000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>417000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>438000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>434000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>442000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>448000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>463000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>461000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>467000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>472000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>486861000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>484000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>490000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>497000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>0.9895</v>
+        <v>0.8255</v>
       </c>
       <c r="C18">
-        <v>0.9502</v>
+        <v>0.8713</v>
       </c>
       <c r="D18">
-        <v>0.9392</v>
+        <v>0.9136</v>
       </c>
       <c r="E18">
-        <v>0.9548</v>
+        <v>0.9186</v>
       </c>
       <c r="F18">
-        <v>0.9433</v>
+        <v>0.9189000000000001</v>
       </c>
       <c r="G18">
+        <v>0.9117</v>
+      </c>
+      <c r="H18">
         <v>0.925</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.8984</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.8806</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.8671</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.8467</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8318</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8272</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.8197</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.8156</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.8138</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.8227</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.83</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.837</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8459</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.857</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.8556</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.8581</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.8583</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.8656</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.865</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.8673</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.8694</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.8702</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.8714</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.8749</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.8786</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.8709</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.8838</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.888</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.885</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.8863</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.8812</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.873</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.8699</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2676,1108 +2835,1135 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0.3749</v>
+        <v>0.2995</v>
       </c>
       <c r="C20">
-        <v>0.4279</v>
+        <v>0.3301</v>
       </c>
       <c r="D20">
-        <v>0.5236</v>
+        <v>0.4114</v>
       </c>
       <c r="E20">
-        <v>0.4426</v>
+        <v>0.5122</v>
       </c>
       <c r="F20">
-        <v>0.4762</v>
+        <v>0.426</v>
       </c>
       <c r="G20">
+        <v>0.4603</v>
+      </c>
+      <c r="H20">
         <v>0.5743</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.6683</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3165</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.3064</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-0.1466</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.0225</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2596</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2809</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2822</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.2739</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2629</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.2946</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.282</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2812</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2948</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.306</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3076</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.3185</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.3242</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.3613</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.3515</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.3573</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.311</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.3879</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.3789</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3675</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.277</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.4072</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.415</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.4353</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3901</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.4043</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.4196</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.4716</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.275</v>
+        <v>0.2272</v>
       </c>
       <c r="C21">
-        <v>0.3257</v>
+        <v>0.2422</v>
       </c>
       <c r="D21">
-        <v>0.39</v>
+        <v>0.3131</v>
       </c>
       <c r="E21">
-        <v>0.3454</v>
+        <v>0.3814</v>
       </c>
       <c r="F21">
-        <v>0.3584</v>
+        <v>0.3324</v>
       </c>
       <c r="G21">
+        <v>0.3464</v>
+      </c>
+      <c r="H21">
         <v>0.4363</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4969</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2495</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2399</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-0.1174</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.0225</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1987</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2117</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2136</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2077</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1996</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.213</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2132</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2122</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1177</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1996</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1887</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2022</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2019</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.235</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2356</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2197</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1926</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2386</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2357</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2319</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1676</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2542</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2576</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2632</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2448</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2474</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2515</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2878</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1033000000</v>
+      </c>
+      <c r="C22">
         <v>1006000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1111000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1242000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1067000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1091000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1698000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1593000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>799000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>771000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-368000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-61000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>708000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>770000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>753000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>726000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>687000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>720000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>669000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>666000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>387000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>602000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>546000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>564000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>563000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>639000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>616000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>575000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>500000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>612000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>599000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>586000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>404000000</v>
-      </c>
-      <c r="AH22">
-        <v>644000000</v>
       </c>
       <c r="AI22">
         <v>644000000</v>
       </c>
       <c r="AJ22">
+        <v>644000000</v>
+      </c>
+      <c r="AK22">
         <v>631000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>602000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>593000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>602000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>673000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>998000000</v>
+        <v>1033000000</v>
       </c>
       <c r="C23">
-        <v>1105000000</v>
+        <v>1006000000</v>
       </c>
       <c r="D23">
-        <v>1236000000</v>
+        <v>1111000000</v>
       </c>
       <c r="E23">
-        <v>1062000000</v>
+        <v>1242000000</v>
       </c>
       <c r="F23">
-        <v>1085000000</v>
+        <v>1067000000</v>
       </c>
       <c r="G23">
+        <v>1091000000</v>
+      </c>
+      <c r="H23">
         <v>1698000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1593000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>799000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>771000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-368000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-61000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>708000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>770000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>753000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>726000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>687000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>720000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>669000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>666000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>387000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>602000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>546000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>564000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>563000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>639000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>616000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>575000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>500000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>612000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>599000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>586000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>404000000</v>
-      </c>
-      <c r="AH23">
-        <v>644000000</v>
       </c>
       <c r="AI23">
         <v>644000000</v>
       </c>
       <c r="AJ23">
+        <v>644000000</v>
+      </c>
+      <c r="AK23">
         <v>631000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>602000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>593000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>602000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>673000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>3.7978</v>
+      </c>
+      <c r="C24">
         <v>3.685</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.9821</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4.3579</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.7278</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.6611</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5.5855</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.1889</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.5977</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.5196</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-1.2026</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-0.1981</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.2597</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.429</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.3385</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.2134</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.061</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.1114</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.9224</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.8761</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.0879</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1.6226</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1.4406</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1.4611</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1.4378</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.5896</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.5024</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.3789</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1.1766</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1.4134</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1.3583</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1.308</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.9065</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1.4</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1.382</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1.3397</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1.2694</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1.2303</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1.2311</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1.3569</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>3.7839</v>
+      </c>
+      <c r="C25">
         <v>3.6715</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3.9821</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4.3579</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3.7278</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.6611</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.5855</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5.1889</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.5977</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2.5196</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-1.2026</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.1981</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.2669</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2.429</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2.3313</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2.2134</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.0441</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.1053</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.9224</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.8761</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.0879</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.6226</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.4406</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1.4611</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.4269</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.5896</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.4988</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.3789</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1.1709</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.4101</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.3552</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1.308</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.9044</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1.397</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1.379</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1.3369</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1.2654</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1.2252</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1.2286</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.3541</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3.7978</v>
+      </c>
+      <c r="C26">
         <v>3.685</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3.9821</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4.3579</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3.7278</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.6611</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5.5855</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.1889</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2.5977</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.5196</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-1.2026</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-0.1981</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.2597</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.429</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.3385</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.2134</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.061</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.1114</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.9224</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.8761</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.0879</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.6226</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.4406</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.4611</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.4378</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.5896</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.5024</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.3789</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.1766</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.4134</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.3583</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.308</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.9065</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.4</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.382</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.3397</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1.2694</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1.2303</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.2311</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.3569</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3.7839</v>
+      </c>
+      <c r="C27">
         <v>3.6715</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3.9821</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4.3579</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.7278</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.6611</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5.5855</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.1889</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.5977</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2.5196</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1.2026</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-0.1981</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.2669</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.429</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.3313</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2.2134</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.0441</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.1053</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.9224</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.8761</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.0879</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.6226</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.4406</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.4611</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.4269</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.5896</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.4988</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.3789</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.1709</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.4101</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.3552</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1.308</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.9044</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.397</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.379</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1.3369</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1.2654</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1.2252</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.2286</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.3541</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>274000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>279000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>285000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>292000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>298023000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>304000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>306746000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>307000000</v>
-      </c>
-      <c r="J28">
-        <v>306000000</v>
       </c>
       <c r="K28">
         <v>306000000</v>
       </c>
       <c r="L28">
+        <v>306000000</v>
+      </c>
+      <c r="M28">
         <v>308000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>313000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>317000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>321983000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>327907000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>335468000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>342000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>347120000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>365934000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>362000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>370440000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>377300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>385315000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>393000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>400641000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>411000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>416296000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>428070000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>434058000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>440602000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>447656000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>450575000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>459854000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>466667000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>471756000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>474194000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>482500000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>490000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>495489000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3896,126 +4082,132 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>0.4605</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.4751</v>
+        <v>0.4055</v>
       </c>
       <c r="D30">
-        <v>0.5612</v>
+        <v>0.4568</v>
       </c>
       <c r="E30">
-        <v>0.4364</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="F30">
-        <v>0.5506</v>
+        <v>0.42</v>
       </c>
       <c r="G30">
+        <v>0.5322</v>
+      </c>
+      <c r="H30">
         <v>0.4001</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.4847</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.5092</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4141</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.5048</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.4839</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.4114</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.2315</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.4512</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.6878</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.223</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4893</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.51</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.4067</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.5325</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.5259</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.3615</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.3717</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.4743</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.4951</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.2575</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.4527</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.412</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.4568</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.2414</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.4302</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.4275</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.4257</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2625</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.4808</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.4088</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.1915</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.2545</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.6515</v>
       </c>
     </row>
